--- a/data/rainfall_2007.xlsx
+++ b/data/rainfall_2007.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A12D791-1580-4884-8501-80A661B9D4D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE37BA6A-BDA6-45AF-B5D2-3D07D0533F05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="41">
   <si>
     <t>0.0</t>
   </si>
@@ -137,14 +137,41 @@
   </si>
   <si>
     <t>27.8</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <r>
+      <t>Precipitación: l/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -475,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B292"/>
+  <dimension ref="A1:B293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="C263" sqref="C263"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,17 +513,17 @@
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>39083</v>
+    <row r="1" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>39084</v>
+        <v>39083</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -504,7 +531,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>39085</v>
+        <v>39084</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -512,7 +539,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>39086</v>
+        <v>39085</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -520,7 +547,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>39091</v>
+        <v>39086</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -528,7 +555,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>39092</v>
+        <v>39091</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -536,7 +563,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>39093</v>
+        <v>39092</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -544,7 +571,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>39094</v>
+        <v>39093</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -552,7 +579,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>39095</v>
+        <v>39094</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -560,7 +587,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>39096</v>
+        <v>39095</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -568,23 +595,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>39097</v>
+        <v>39096</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>39098</v>
+        <v>39097</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>39099</v>
+        <v>39098</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -592,7 +619,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>39100</v>
+        <v>39099</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -600,7 +627,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>39101</v>
+        <v>39100</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -608,7 +635,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>39102</v>
+        <v>39101</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -616,7 +643,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>39103</v>
+        <v>39102</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
@@ -624,23 +651,23 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>39104</v>
+        <v>39103</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>39105</v>
+        <v>39104</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>39106</v>
+        <v>39105</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
@@ -648,7 +675,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>39107</v>
+        <v>39106</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
@@ -656,7 +683,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>39108</v>
+        <v>39107</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
@@ -664,7 +691,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>39109</v>
+        <v>39108</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
@@ -672,7 +699,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>39110</v>
+        <v>39109</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
@@ -680,23 +707,23 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>39111</v>
+        <v>39110</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>39112</v>
+        <v>39111</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>39113</v>
+        <v>39112</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -704,7 +731,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>39114</v>
+        <v>39113</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
@@ -712,7 +739,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>39115</v>
+        <v>39114</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>0</v>
@@ -720,7 +747,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>39116</v>
+        <v>39115</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
@@ -728,23 +755,23 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>39117</v>
+        <v>39116</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>39118</v>
+        <v>39117</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>39119</v>
+        <v>39118</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
@@ -752,31 +779,31 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>39120</v>
+        <v>39119</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>39121</v>
+        <v>39120</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>39122</v>
+        <v>39121</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>39123</v>
+        <v>39122</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
@@ -784,37 +811,37 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>39124</v>
+        <v>39123</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>39127</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>39124</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39129</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>39127</v>
+      </c>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>39130</v>
+        <v>39129</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>39131</v>
+        <v>39130</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>0</v>
@@ -822,71 +849,71 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>39132</v>
+        <v>39131</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>39133</v>
+        <v>39132</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>39134</v>
+        <v>39133</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>39135</v>
+        <v>39134</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>39136</v>
+        <v>39135</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>39137</v>
+        <v>39136</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>39138</v>
+        <v>39137</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>39139</v>
+        <v>39138</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>39140</v>
+        <v>39139</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>0</v>
@@ -894,23 +921,23 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>39141</v>
+        <v>39140</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>39142</v>
+        <v>39141</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>39143</v>
+        <v>39142</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>0</v>
@@ -918,7 +945,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>39144</v>
+        <v>39143</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>0</v>
@@ -926,7 +953,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>39145</v>
+        <v>39144</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>0</v>
@@ -934,7 +961,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>39146</v>
+        <v>39145</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>0</v>
@@ -942,23 +969,23 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>39147</v>
+        <v>39146</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>39149</v>
+        <v>39147</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>39150</v>
+        <v>39149</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>0</v>
@@ -966,7 +993,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>39151</v>
+        <v>39150</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>0</v>
@@ -974,7 +1001,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>39152</v>
+        <v>39151</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>0</v>
@@ -982,7 +1009,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>39153</v>
+        <v>39152</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>0</v>
@@ -990,7 +1017,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>39154</v>
+        <v>39153</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>0</v>
@@ -998,7 +1025,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>39155</v>
+        <v>39154</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>0</v>
@@ -1006,7 +1033,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>39156</v>
+        <v>39155</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>0</v>
@@ -1014,7 +1041,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>39157</v>
+        <v>39156</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>0</v>
@@ -1022,7 +1049,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>39158</v>
+        <v>39157</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>0</v>
@@ -1030,7 +1057,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>39159</v>
+        <v>39158</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>0</v>
@@ -1038,7 +1065,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>39160</v>
+        <v>39159</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>0</v>
@@ -1046,7 +1073,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>39161</v>
+        <v>39160</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>0</v>
@@ -1054,7 +1081,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>39162</v>
+        <v>39161</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>0</v>
@@ -1062,7 +1089,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>39163</v>
+        <v>39162</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>0</v>
@@ -1070,7 +1097,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>39164</v>
+        <v>39163</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>0</v>
@@ -1078,7 +1105,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>39165</v>
+        <v>39164</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>0</v>
@@ -1086,7 +1113,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>39166</v>
+        <v>39165</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>0</v>
@@ -1094,31 +1121,31 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>39167</v>
+        <v>39166</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>39168</v>
+        <v>39167</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>39169</v>
+        <v>39168</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>39170</v>
+        <v>39169</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>0</v>
@@ -1126,47 +1153,47 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>39171</v>
+        <v>39170</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>39172</v>
+        <v>39171</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>39173</v>
+        <v>39172</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>39174</v>
+        <v>39173</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>39175</v>
+        <v>39174</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>39176</v>
+        <v>39175</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>16</v>
@@ -1174,55 +1201,55 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>39177</v>
+        <v>39176</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>39178</v>
+        <v>39177</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>39179</v>
+        <v>39178</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>39180</v>
+        <v>39179</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>39181</v>
+        <v>39180</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>39182</v>
+        <v>39181</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>39183</v>
+        <v>39182</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>0</v>
@@ -1230,91 +1257,91 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>39184</v>
+        <v>39183</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>39185</v>
+        <v>39184</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>39186</v>
+        <v>39185</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>39187</v>
+        <v>39186</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>39188</v>
+        <v>39187</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>39189</v>
+        <v>39188</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>39190</v>
+        <v>39189</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>39191</v>
-      </c>
-      <c r="B101" s="2"/>
+        <v>39190</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>39192</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>39191</v>
+      </c>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>39193</v>
-      </c>
-      <c r="B103" s="2"/>
+        <v>39192</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>39216</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>39193</v>
+      </c>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>39217</v>
+        <v>39216</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>0</v>
@@ -1322,7 +1349,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>39218</v>
+        <v>39217</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>0</v>
@@ -1330,7 +1357,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>39219</v>
+        <v>39218</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>0</v>
@@ -1338,7 +1365,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>39220</v>
+        <v>39219</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>0</v>
@@ -1346,79 +1373,79 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>39221</v>
+        <v>39220</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>39222</v>
+        <v>39221</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>39223</v>
+        <v>39222</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>39224</v>
+        <v>39223</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>39225</v>
+        <v>39224</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>39226</v>
+        <v>39225</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>39227</v>
+        <v>39226</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>39228</v>
+        <v>39227</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>39229</v>
+        <v>39228</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>39230</v>
+        <v>39229</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>0</v>
@@ -1426,7 +1453,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>39231</v>
+        <v>39230</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>0</v>
@@ -1434,21 +1461,21 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>39232</v>
-      </c>
-      <c r="B120" s="2"/>
+        <v>39231</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>39233</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>39232</v>
+      </c>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>39234</v>
+        <v>39233</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>0</v>
@@ -1456,7 +1483,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>39235</v>
+        <v>39234</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>0</v>
@@ -1464,7 +1491,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>39236</v>
+        <v>39235</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>0</v>
@@ -1472,7 +1499,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>39237</v>
+        <v>39236</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>0</v>
@@ -1480,7 +1507,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>39238</v>
+        <v>39237</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>0</v>
@@ -1488,7 +1515,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>39239</v>
+        <v>39238</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>0</v>
@@ -1496,7 +1523,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>39240</v>
+        <v>39239</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>0</v>
@@ -1504,7 +1531,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>39241</v>
+        <v>39240</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>0</v>
@@ -1512,23 +1539,23 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>39242</v>
+        <v>39241</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>39243</v>
+        <v>39242</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>39244</v>
+        <v>39243</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>0</v>
@@ -1536,7 +1563,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>39245</v>
+        <v>39244</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>0</v>
@@ -1544,7 +1571,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>39246</v>
+        <v>39245</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>0</v>
@@ -1552,45 +1579,45 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>39247</v>
+        <v>39246</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>39248</v>
+        <v>39247</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>39249</v>
-      </c>
-      <c r="B137" s="2"/>
+        <v>39248</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>39250</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>39249</v>
+      </c>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>39251</v>
+        <v>39250</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>39252</v>
+        <v>39251</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>0</v>
@@ -1598,7 +1625,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>39253</v>
+        <v>39252</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>0</v>
@@ -1606,7 +1633,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>39254</v>
+        <v>39253</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>0</v>
@@ -1614,7 +1641,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>39255</v>
+        <v>39254</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>0</v>
@@ -1622,7 +1649,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>39256</v>
+        <v>39255</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>0</v>
@@ -1630,7 +1657,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>39257</v>
+        <v>39256</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>0</v>
@@ -1638,7 +1665,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>39258</v>
+        <v>39257</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>0</v>
@@ -1646,7 +1673,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>39259</v>
+        <v>39258</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>0</v>
@@ -1654,7 +1681,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>39260</v>
+        <v>39259</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>0</v>
@@ -1662,7 +1689,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>39261</v>
+        <v>39260</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>0</v>
@@ -1670,7 +1697,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>39262</v>
+        <v>39261</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>0</v>
@@ -1678,7 +1705,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>39263</v>
+        <v>39262</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>0</v>
@@ -1686,7 +1713,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>39264</v>
+        <v>39263</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>0</v>
@@ -1694,7 +1721,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>39265</v>
+        <v>39264</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>0</v>
@@ -1702,7 +1729,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>39266</v>
+        <v>39265</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>0</v>
@@ -1710,7 +1737,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>39267</v>
+        <v>39266</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>0</v>
@@ -1718,7 +1745,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>39268</v>
+        <v>39267</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>0</v>
@@ -1726,7 +1753,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>39269</v>
+        <v>39268</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>0</v>
@@ -1734,7 +1761,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>39270</v>
+        <v>39269</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>0</v>
@@ -1742,7 +1769,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>39271</v>
+        <v>39270</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>0</v>
@@ -1750,7 +1777,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>39272</v>
+        <v>39271</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>0</v>
@@ -1758,7 +1785,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>39273</v>
+        <v>39272</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>0</v>
@@ -1766,7 +1793,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>39274</v>
+        <v>39273</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>0</v>
@@ -1774,7 +1801,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>39275</v>
+        <v>39274</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>0</v>
@@ -1782,7 +1809,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>39276</v>
+        <v>39275</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>0</v>
@@ -1790,7 +1817,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>39277</v>
+        <v>39276</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>0</v>
@@ -1798,21 +1825,21 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>39278</v>
-      </c>
-      <c r="B166" s="2"/>
+        <v>39277</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>39279</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>39278</v>
+      </c>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>39280</v>
+        <v>39279</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>0</v>
@@ -1820,7 +1847,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>39281</v>
+        <v>39280</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>0</v>
@@ -1828,7 +1855,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>39282</v>
+        <v>39281</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>0</v>
@@ -1836,7 +1863,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>39283</v>
+        <v>39282</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>0</v>
@@ -1844,7 +1871,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>39284</v>
+        <v>39283</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>0</v>
@@ -1852,7 +1879,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>39285</v>
+        <v>39284</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>0</v>
@@ -1860,7 +1887,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>39286</v>
+        <v>39285</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>0</v>
@@ -1868,7 +1895,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>39295</v>
+        <v>39286</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>0</v>
@@ -1876,7 +1903,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>39296</v>
+        <v>39295</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>0</v>
@@ -1884,23 +1911,23 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>39299</v>
+        <v>39296</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>39300</v>
+        <v>39299</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>39302</v>
+        <v>39300</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>0</v>
@@ -1908,7 +1935,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>39303</v>
+        <v>39302</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>0</v>
@@ -1916,7 +1943,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>39304</v>
+        <v>39303</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>0</v>
@@ -1924,7 +1951,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>39305</v>
+        <v>39304</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>0</v>
@@ -1932,23 +1959,23 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>39306</v>
+        <v>39305</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>39307</v>
+        <v>39306</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>39308</v>
+        <v>39307</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>0</v>
@@ -1956,7 +1983,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>39309</v>
+        <v>39308</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>0</v>
@@ -1964,7 +1991,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>39310</v>
+        <v>39309</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>0</v>
@@ -1972,7 +1999,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>39311</v>
+        <v>39310</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>0</v>
@@ -1980,7 +2007,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>39312</v>
+        <v>39311</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>0</v>
@@ -1988,7 +2015,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>39313</v>
+        <v>39312</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>0</v>
@@ -1996,7 +2023,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>39314</v>
+        <v>39313</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>0</v>
@@ -2004,7 +2031,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>39315</v>
+        <v>39314</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>0</v>
@@ -2012,7 +2039,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>39316</v>
+        <v>39315</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>0</v>
@@ -2020,7 +2047,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>39317</v>
+        <v>39316</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>0</v>
@@ -2028,31 +2055,31 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>39318</v>
+        <v>39317</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>39319</v>
+        <v>39318</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>39320</v>
+        <v>39319</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>39321</v>
+        <v>39320</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>0</v>
@@ -2060,7 +2087,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>39322</v>
+        <v>39321</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>0</v>
@@ -2068,7 +2095,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>39323</v>
+        <v>39322</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>0</v>
@@ -2076,7 +2103,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>39324</v>
+        <v>39323</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>0</v>
@@ -2084,7 +2111,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>39325</v>
+        <v>39324</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>0</v>
@@ -2092,7 +2119,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>39326</v>
+        <v>39325</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>0</v>
@@ -2100,7 +2127,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>39327</v>
+        <v>39326</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>0</v>
@@ -2108,7 +2135,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>39328</v>
+        <v>39327</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>0</v>
@@ -2116,7 +2143,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>39329</v>
+        <v>39328</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>0</v>
@@ -2124,7 +2151,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>39330</v>
+        <v>39329</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>0</v>
@@ -2132,7 +2159,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>39331</v>
+        <v>39330</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>0</v>
@@ -2140,7 +2167,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>39332</v>
+        <v>39331</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>0</v>
@@ -2148,7 +2175,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>39333</v>
+        <v>39332</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>0</v>
@@ -2156,23 +2183,23 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>39334</v>
+        <v>39333</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>39335</v>
+        <v>39334</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>39336</v>
+        <v>39335</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>0</v>
@@ -2180,23 +2207,23 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>39337</v>
+        <v>39336</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>39338</v>
+        <v>39337</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>39339</v>
+        <v>39338</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>0</v>
@@ -2204,7 +2231,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>39340</v>
+        <v>39339</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>0</v>
@@ -2212,7 +2239,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>39341</v>
+        <v>39340</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>0</v>
@@ -2220,7 +2247,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>39342</v>
+        <v>39341</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>0</v>
@@ -2228,7 +2255,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>39343</v>
+        <v>39342</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>0</v>
@@ -2236,7 +2263,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>39344</v>
+        <v>39343</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>0</v>
@@ -2244,39 +2271,39 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>39345</v>
+        <v>39344</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>39346</v>
+        <v>39345</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>39347</v>
+        <v>39346</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>39348</v>
+        <v>39347</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>39349</v>
+        <v>39348</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>0</v>
@@ -2284,7 +2311,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>39350</v>
+        <v>39349</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>0</v>
@@ -2292,7 +2319,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>39351</v>
+        <v>39350</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>0</v>
@@ -2300,7 +2327,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>39352</v>
+        <v>39351</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>0</v>
@@ -2308,7 +2335,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>39353</v>
+        <v>39352</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>0</v>
@@ -2316,61 +2343,61 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>39354</v>
+        <v>39353</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>39355</v>
+        <v>39354</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>39356</v>
+        <v>39355</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>39357</v>
-      </c>
-      <c r="B234" s="2"/>
+        <v>39356</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>39358</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>39357</v>
+      </c>
+      <c r="B235" s="2"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>39359</v>
+        <v>39358</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>39360</v>
+        <v>39359</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>39361</v>
+        <v>39360</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>0</v>
@@ -2378,7 +2405,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>39362</v>
+        <v>39361</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>0</v>
@@ -2386,7 +2413,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>39363</v>
+        <v>39362</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>0</v>
@@ -2394,7 +2421,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>39364</v>
+        <v>39363</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>0</v>
@@ -2402,7 +2429,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>39365</v>
+        <v>39364</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>0</v>
@@ -2410,7 +2437,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>39366</v>
+        <v>39365</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>0</v>
@@ -2418,7 +2445,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>39367</v>
+        <v>39366</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>0</v>
@@ -2426,7 +2453,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>39368</v>
+        <v>39367</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>0</v>
@@ -2434,7 +2461,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>39369</v>
+        <v>39368</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>0</v>
@@ -2442,7 +2469,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>39370</v>
+        <v>39369</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>0</v>
@@ -2450,7 +2477,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>39371</v>
+        <v>39370</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>0</v>
@@ -2458,7 +2485,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>39372</v>
+        <v>39371</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>0</v>
@@ -2466,7 +2493,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>39373</v>
+        <v>39372</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>0</v>
@@ -2474,7 +2501,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>39374</v>
+        <v>39373</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>0</v>
@@ -2482,7 +2509,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>39375</v>
+        <v>39374</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>0</v>
@@ -2490,7 +2517,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>39376</v>
+        <v>39375</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>0</v>
@@ -2498,39 +2525,39 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>39377</v>
+        <v>39376</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>39378</v>
+        <v>39377</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>39379</v>
+        <v>39378</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>39380</v>
+        <v>39379</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>39381</v>
+        <v>39380</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>0</v>
@@ -2538,7 +2565,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>39382</v>
+        <v>39381</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>0</v>
@@ -2546,7 +2573,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>39383</v>
+        <v>39382</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>0</v>
@@ -2554,7 +2581,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>39384</v>
+        <v>39383</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>0</v>
@@ -2562,7 +2589,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>39385</v>
+        <v>39384</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>0</v>
@@ -2570,7 +2597,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>39386</v>
+        <v>39385</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>0</v>
@@ -2578,7 +2605,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>39387</v>
+        <v>39386</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>0</v>
@@ -2586,7 +2613,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>39388</v>
+        <v>39387</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>0</v>
@@ -2594,7 +2621,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>39389</v>
+        <v>39388</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>0</v>
@@ -2602,7 +2629,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>39390</v>
+        <v>39389</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>0</v>
@@ -2610,7 +2637,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>39391</v>
+        <v>39390</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>0</v>
@@ -2618,7 +2645,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>39392</v>
+        <v>39391</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>0</v>
@@ -2626,7 +2653,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>39393</v>
+        <v>39392</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>0</v>
@@ -2634,7 +2661,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>39394</v>
+        <v>39393</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>0</v>
@@ -2642,7 +2669,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>39395</v>
+        <v>39394</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>0</v>
@@ -2650,7 +2677,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>39396</v>
+        <v>39395</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>0</v>
@@ -2658,7 +2685,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>39397</v>
+        <v>39396</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>0</v>
@@ -2666,7 +2693,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>39398</v>
+        <v>39397</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>0</v>
@@ -2674,7 +2701,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>39399</v>
+        <v>39398</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>0</v>
@@ -2682,7 +2709,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>39400</v>
+        <v>39399</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>0</v>
@@ -2690,7 +2717,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>39401</v>
+        <v>39400</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>0</v>
@@ -2698,7 +2725,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>39402</v>
+        <v>39401</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>0</v>
@@ -2706,7 +2733,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>39403</v>
+        <v>39402</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>0</v>
@@ -2714,7 +2741,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>39404</v>
+        <v>39403</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>0</v>
@@ -2722,31 +2749,31 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>39405</v>
+        <v>39404</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>39406</v>
+        <v>39405</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>39407</v>
+        <v>39406</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>39408</v>
+        <v>39407</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>0</v>
@@ -2754,7 +2781,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>39409</v>
+        <v>39408</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>0</v>
@@ -2762,7 +2789,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>39410</v>
+        <v>39409</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>0</v>
@@ -2770,7 +2797,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>39411</v>
+        <v>39410</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>0</v>
@@ -2778,7 +2805,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>39412</v>
+        <v>39411</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>0</v>
@@ -2786,7 +2813,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>39413</v>
+        <v>39412</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>0</v>
@@ -2794,7 +2821,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>39414</v>
+        <v>39413</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>0</v>
@@ -2802,9 +2829,17 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
+        <v>39414</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
         <v>39415</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B293" s="2" t="s">
         <v>0</v>
       </c>
     </row>
